--- a/exeFileStudentReaction/dist/history.xlsx
+++ b/exeFileStudentReaction/dist/history.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Programming\NeisStudentsGUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Programming\NeisStudentsGUI\exeFileStudentReaction\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA0C6BE-5E02-414D-A47F-41EED653A3A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55F258-07BE-44F2-B071-B8D2C3DA1248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,10 +401,13 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="A2:F23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
